--- a/Documentos oficiais/Tabela Ocorrencias.xlsx
+++ b/Documentos oficiais/Tabela Ocorrencias.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="78">
   <si>
     <t xml:space="preserve">TABELA OCORRENCIA</t>
   </si>
@@ -253,6 +253,9 @@
   </si>
   <si>
     <t xml:space="preserve">cargo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nivel de acesso</t>
   </si>
 </sst>
 </file>
@@ -262,13 +265,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -285,21 +287,155 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF0000EE"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -331,7 +467,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -355,8 +491,59 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -369,7 +556,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -377,7 +564,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -385,47 +572,132 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="23">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000EE"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -434,10 +706,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:I67"/>
+  <dimension ref="B2:I68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E63" activeCellId="0" sqref="E63"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C75" activeCellId="0" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -790,7 +1062,7 @@
       <c r="I23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="6"/>
+      <c r="B24" s="0"/>
       <c r="C24" s="3" t="s">
         <v>44</v>
       </c>
@@ -1033,7 +1305,7 @@
         <v>9</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1213,72 +1485,103 @@
       <c r="G59" s="3"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E60" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="F60" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="G60" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D61" s="2" t="s">
+      <c r="D61" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" s="1" t="s">
+      <c r="E61" s="9"/>
+      <c r="F61" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D62" s="2" t="s">
+      <c r="D62" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D63" s="2" t="s">
+      <c r="D63" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D64" s="2" t="s">
+      <c r="D64" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D65" s="2" t="s">
+      <c r="D65" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D66" s="2" t="s">
+      <c r="D66" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-    </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D67" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E67" s="16"/>
+      <c r="F67" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/Documentos oficiais/Tabela Ocorrencias.xlsx
+++ b/Documentos oficiais/Tabela Ocorrencias.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="87">
   <si>
     <t xml:space="preserve">TABELA OCORRENCIA</t>
   </si>
@@ -57,30 +57,27 @@
     <t xml:space="preserve">S</t>
   </si>
   <si>
+    <t xml:space="preserve">ocorr_endereco_principal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STRING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AQUI APRESENTA 2 OPÇÕES, PARA INDICAR SE O TIPO DE ENDEREÇO PRINCIPAL É COORDENADA OU LOGRADOURO.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ocorr_coordenada_geog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OBRIGATÓRIA APENAS SE FOR O TIPO DE ENDEREÇO PRINCIPAL</t>
+  </si>
+  <si>
     <t xml:space="preserve">ENDERECO (revisar)</t>
   </si>
   <si>
-    <t xml:space="preserve">ocorr_endereco_principal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FK?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STRING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AQUI APRESENTA 2 OPÇÕES, PARA INDICAR SE O TIPO DE ENDEREÇO PRINCIPAL É COORDENADA OU LOGRADOURO.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ocorr_coordenada_geog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OBRIGATÓRIA APENAS SE FOR O TIPO DE ENDEREÇO PRINCIPAL</t>
-  </si>
-  <si>
     <t xml:space="preserve">ocorr_endereco_logradouro</t>
   </si>
   <si>
@@ -120,6 +117,9 @@
     <t xml:space="preserve">AQUI INFORMA SE É A OCORRÊNCIA PRINCIPAL OU É O RETORNO DE UMA OCORRÊNCIA</t>
   </si>
   <si>
+    <t xml:space="preserve">revisar</t>
+  </si>
+  <si>
     <t xml:space="preserve">OCORRENCIA</t>
   </si>
   <si>
@@ -189,9 +189,6 @@
     <t xml:space="preserve">SE TEM FOTOS DA OCORRÊNCIA OU NÃO</t>
   </si>
   <si>
-    <t xml:space="preserve">(revisar)</t>
-  </si>
-  <si>
     <t xml:space="preserve">ocorr_prioridade</t>
   </si>
   <si>
@@ -216,46 +213,76 @@
     <t xml:space="preserve">nome</t>
   </si>
   <si>
+    <t xml:space="preserve">passaporte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">usar ou o cpf ou passaporte…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">telefone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TABELA COBRADE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">codigo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">revisar sobre a pk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grupo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subgrupo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tipo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subtipo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ativa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TABELA USUARIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">login</t>
+  </si>
+  <si>
     <t xml:space="preserve">RG</t>
   </si>
   <si>
-    <t xml:space="preserve">CPF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">telefone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TABELA COBRADE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">codigo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grupo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">subgrupo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tipo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">subtipo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TABELA USUARIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
     <t xml:space="preserve">cargo</t>
   </si>
   <si>
     <t xml:space="preserve">nivel de acesso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TABELA ENDERECO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">logradouro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">referencia</t>
   </si>
 </sst>
 </file>
@@ -265,12 +292,13 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -287,132 +315,13 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
-    <font>
-      <b val="true"/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF0000EE"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -421,21 +330,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -454,6 +348,13 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="hair"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
       <right style="hair"/>
       <top/>
       <bottom/>
@@ -467,7 +368,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -491,59 +392,8 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -556,7 +406,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -564,7 +414,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -572,16 +422,24 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -600,104 +458,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000EE"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -706,10 +487,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:I68"/>
+  <dimension ref="B2:L77"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C75" activeCellId="0" sqref="C75"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H77" activeCellId="0" sqref="H77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -784,73 +565,71 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="6"/>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="10"/>
+      <c r="D7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="9"/>
+      <c r="F7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="6"/>
-      <c r="C8" s="5"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="6"/>
+      <c r="C9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="D9" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="6"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="8" t="s">
+      <c r="E9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="F9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="6"/>
       <c r="C10" s="5"/>
       <c r="D10" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I10" s="2"/>
     </row>
@@ -858,20 +637,20 @@
       <c r="B11" s="6"/>
       <c r="C11" s="5"/>
       <c r="D11" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="6"/>
-      <c r="C12" s="10"/>
+      <c r="C12" s="12"/>
       <c r="D12" s="8"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -881,65 +660,65 @@
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="6"/>
       <c r="C13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="E13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="6"/>
       <c r="C14" s="3"/>
       <c r="D14" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="6"/>
       <c r="C15" s="3"/>
       <c r="D15" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="6"/>
-      <c r="C16" s="10"/>
+      <c r="C16" s="12"/>
       <c r="D16" s="8"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
@@ -948,23 +727,25 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="6"/>
-      <c r="C17" s="11"/>
+      <c r="C17" s="13"/>
       <c r="D17" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" s="2" t="s">
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="6"/>
       <c r="C18" s="3" t="s">
         <v>32</v>
       </c>
@@ -972,13 +753,13 @@
         <v>33</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>9</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>34</v>
@@ -986,7 +767,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="6"/>
-      <c r="C19" s="10"/>
+      <c r="C19" s="12"/>
       <c r="D19" s="8" t="s">
         <v>35</v>
       </c>
@@ -1003,7 +784,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="6"/>
-      <c r="C20" s="10"/>
+      <c r="C20" s="12"/>
       <c r="D20" s="8" t="s">
         <v>38</v>
       </c>
@@ -1020,13 +801,13 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="6"/>
-      <c r="C21" s="10"/>
+      <c r="C21" s="12"/>
       <c r="D21" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G21" s="9" t="s">
         <v>10</v>
@@ -1037,13 +818,13 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="6"/>
-      <c r="C22" s="10"/>
+      <c r="C22" s="12"/>
       <c r="D22" s="8" t="s">
         <v>42</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>10</v>
@@ -1054,7 +835,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="6"/>
-      <c r="C23" s="10"/>
+      <c r="C23" s="12"/>
       <c r="D23" s="8"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
@@ -1070,13 +851,13 @@
         <v>45</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>46</v>
@@ -1089,19 +870,19 @@
         <v>47</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I25" s="2"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="6"/>
-      <c r="C26" s="10"/>
+      <c r="C26" s="12"/>
       <c r="D26" s="8"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
@@ -1117,10 +898,10 @@
         <v>49</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G27" s="9" t="s">
         <v>10</v>
@@ -1131,13 +912,13 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="6"/>
-      <c r="C28" s="10"/>
+      <c r="C28" s="12"/>
       <c r="D28" s="8" t="s">
         <v>51</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>10</v>
@@ -1148,13 +929,13 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="6"/>
-      <c r="C29" s="10"/>
+      <c r="C29" s="12"/>
       <c r="D29" s="8" t="s">
         <v>53</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G29" s="9" t="s">
         <v>10</v>
@@ -1165,7 +946,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="6"/>
-      <c r="C30" s="10"/>
+      <c r="C30" s="12"/>
       <c r="D30" s="8"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
@@ -1174,17 +955,13 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="6"/>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="14"/>
+      <c r="D31" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>20</v>
-      </c>
+      <c r="E31" s="9"/>
       <c r="F31" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>10</v>
@@ -1193,26 +970,26 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="6"/>
-      <c r="C32" s="10"/>
+      <c r="C32" s="12"/>
       <c r="D32" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G32" s="9" t="s">
         <v>10</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="6"/>
-      <c r="C33" s="10"/>
+      <c r="C33" s="12"/>
       <c r="D33" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
@@ -1221,25 +998,25 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="6"/>
-      <c r="C34" s="13"/>
+      <c r="C34" s="15"/>
       <c r="D34" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G34" s="9" t="s">
         <v>10</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="37" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C37" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -1271,45 +1048,46 @@
       <c r="G39" s="3"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D40" s="14" t="s">
-        <v>63</v>
+      <c r="D40" s="16" t="s">
+        <v>62</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G40" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D41" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>8</v>
-      </c>
+      <c r="D41" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E41" s="9"/>
       <c r="F41" s="9" t="s">
         <v>9</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D42" s="14" t="s">
-        <v>65</v>
+      <c r="D42" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="9" t="s">
         <v>9</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="I42" s="0" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D43" s="14" t="s">
+      <c r="D43" s="16" t="s">
         <v>66</v>
       </c>
       <c r="E43" s="9"/>
@@ -1321,32 +1099,38 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D44" s="14" t="s">
+      <c r="D44" s="16" t="s">
         <v>67</v>
       </c>
       <c r="E44" s="9"/>
       <c r="F44" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D45" s="2"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
+      <c r="D45" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D46" s="2"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
+      <c r="D46" s="0"/>
+      <c r="E46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C47" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -1378,8 +1162,8 @@
       <c r="G49" s="3"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D50" s="14" t="s">
-        <v>69</v>
+      <c r="D50" s="16" t="s">
+        <v>70</v>
       </c>
       <c r="E50" s="9" t="s">
         <v>8</v>
@@ -1390,60 +1174,69 @@
       <c r="G50" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="I50" s="0" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D51" s="14" t="s">
-        <v>70</v>
+      <c r="D51" s="16" t="s">
+        <v>72</v>
       </c>
       <c r="E51" s="9"/>
       <c r="F51" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G51" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D52" s="14" t="s">
-        <v>71</v>
+      <c r="D52" s="16" t="s">
+        <v>73</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G52" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D53" s="14" t="s">
-        <v>72</v>
+      <c r="D53" s="16" t="s">
+        <v>74</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G53" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D54" s="14" t="s">
-        <v>73</v>
+      <c r="D54" s="16" t="s">
+        <v>75</v>
       </c>
       <c r="E54" s="9"/>
       <c r="F54" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D55" s="2"/>
+      <c r="D55" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
+      <c r="F55" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D56" s="2"/>
@@ -1453,7 +1246,7 @@
     </row>
     <row r="57" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C57" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -1475,6 +1268,9 @@
       </c>
       <c r="G58" s="3" t="s">
         <v>5</v>
+      </c>
+      <c r="L58" s="0" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1485,8 +1281,8 @@
       <c r="G59" s="3"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D60" s="14" t="s">
-        <v>75</v>
+      <c r="D60" s="16" t="s">
+        <v>68</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>8</v>
@@ -1499,20 +1295,20 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D61" s="14" t="s">
-        <v>63</v>
+      <c r="D61" s="16" t="s">
+        <v>62</v>
       </c>
       <c r="E61" s="9"/>
       <c r="F61" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G61" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D62" s="14" t="s">
-        <v>64</v>
+      <c r="D62" s="16" t="s">
+        <v>80</v>
       </c>
       <c r="E62" s="9"/>
       <c r="F62" s="9" t="s">
@@ -1523,8 +1319,8 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D63" s="14" t="s">
-        <v>65</v>
+      <c r="D63" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="E63" s="9"/>
       <c r="F63" s="9" t="s">
@@ -1535,19 +1331,19 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D64" s="14" t="s">
+      <c r="D64" s="16" t="s">
         <v>67</v>
       </c>
       <c r="E64" s="9"/>
       <c r="F64" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G64" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D65" s="14" t="s">
+      <c r="D65" s="16" t="s">
         <v>66</v>
       </c>
       <c r="E65" s="9"/>
@@ -1559,24 +1355,24 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D66" s="14" t="s">
-        <v>76</v>
+      <c r="D66" s="16" t="s">
+        <v>81</v>
       </c>
       <c r="E66" s="9"/>
       <c r="F66" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G66" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D67" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E67" s="16"/>
+      <c r="D67" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E67" s="18"/>
       <c r="F67" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>10</v>
@@ -1584,27 +1380,105 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C70" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C71" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C72" s="5"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D73" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D74" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D75" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D76" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="33">
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
-    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="C9:C11"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="C37:G37"/>
@@ -1625,6 +1499,12 @@
     <mergeCell ref="E58:E59"/>
     <mergeCell ref="F58:F59"/>
     <mergeCell ref="G58:G59"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Documentos oficiais/Tabela Ocorrencias.xlsx
+++ b/Documentos oficiais/Tabela Ocorrencias.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="87">
   <si>
     <t xml:space="preserve">TABELA OCORRENCIA</t>
   </si>
@@ -219,7 +219,7 @@
     <t xml:space="preserve">CPF</t>
   </si>
   <si>
-    <t xml:space="preserve">usar ou o cpf ou passaporte…</t>
+    <t xml:space="preserve">usar cpf ou passaporte…</t>
   </si>
   <si>
     <t xml:space="preserve">telefone</t>
@@ -261,18 +261,12 @@
     <t xml:space="preserve">TABELA USUARIO</t>
   </si>
   <si>
-    <t xml:space="preserve">login</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RG</t>
+    <t xml:space="preserve">nivel de acesso</t>
   </si>
   <si>
     <t xml:space="preserve">cargo</t>
   </si>
   <si>
-    <t xml:space="preserve">nivel de acesso</t>
-  </si>
-  <si>
     <t xml:space="preserve">TABELA ENDERECO</t>
   </si>
   <si>
@@ -283,6 +277,12 @@
   </si>
   <si>
     <t xml:space="preserve">referencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TABELA LOGIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">senha</t>
   </si>
 </sst>
 </file>
@@ -487,10 +487,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:L77"/>
+  <dimension ref="B2:I84"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H77" activeCellId="0" sqref="H77"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -901,7 +901,7 @@
         <v>19</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G27" s="9" t="s">
         <v>10</v>
@@ -1269,9 +1269,6 @@
       <c r="G58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L58" s="0" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="5"/>
@@ -1284,9 +1281,7 @@
       <c r="D60" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E60" s="9" t="s">
-        <v>8</v>
-      </c>
+      <c r="E60" s="9"/>
       <c r="F60" s="9" t="s">
         <v>9</v>
       </c>
@@ -1307,22 +1302,18 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D62" s="16" t="s">
-        <v>80</v>
-      </c>
+      <c r="D62" s="16"/>
       <c r="E62" s="9"/>
-      <c r="F62" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G62" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D63" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E63" s="9"/>
+      <c r="E63" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="F63" s="9" t="s">
         <v>9</v>
       </c>
@@ -1332,31 +1323,31 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D64" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E64" s="9"/>
       <c r="F64" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G64" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D65" s="16" t="s">
-        <v>66</v>
+      <c r="D65" s="17" t="s">
+        <v>79</v>
       </c>
       <c r="E65" s="9"/>
-      <c r="F65" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G65" s="9" t="s">
+      <c r="F65" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D66" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E66" s="9"/>
       <c r="F66" s="9" t="s">
@@ -1367,22 +1358,14 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D67" s="17" t="s">
-        <v>82</v>
-      </c>
+      <c r="D67" s="0"/>
       <c r="E67" s="18"/>
-      <c r="F67" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="70" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C70" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -1429,7 +1412,7 @@
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D74" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E74" s="9"/>
       <c r="F74" s="9" t="s">
@@ -1441,7 +1424,7 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D75" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="9" t="s">
@@ -1453,7 +1436,7 @@
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D76" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E76" s="9"/>
       <c r="F76" s="9" t="s">
@@ -1465,13 +1448,79 @@
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C79" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C80" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C81" s="5"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D82" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D83" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G83" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D84" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G84" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="39">
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
@@ -1505,6 +1554,12 @@
     <mergeCell ref="E71:E72"/>
     <mergeCell ref="F71:F72"/>
     <mergeCell ref="G71:G72"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="G80:G81"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Documentos oficiais/Tabela Ocorrencias.xlsx
+++ b/Documentos oficiais/Tabela Ocorrencias.xlsx
@@ -393,7 +393,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -464,10 +464,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -489,8 +485,8 @@
   </sheetPr>
   <dimension ref="B2:I84"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J62" activeCellId="0" sqref="J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1359,7 +1355,7 @@
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D67" s="0"/>
-      <c r="E67" s="18"/>
+      <c r="E67" s="4"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
